--- a/conversor/templates/HAP_Template_RSECE.xlsx
+++ b/conversor/templates/HAP_Template_RSECE.xlsx
@@ -284,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -511,6 +511,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11894,7 +11897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11906,6 +11909,7 @@
     <col width="12" customWidth="1" style="78" min="2" max="2"/>
     <col width="12" customWidth="1" style="78" min="3" max="3"/>
     <col width="12" customWidth="1" style="78" min="4" max="4"/>
+    <col width="12" customWidth="1" style="78" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11949,6 +11953,12 @@
         <is>
           <t>Espessura
 (m)</t>
+        </is>
+      </c>
+      <c r="E3" s="84" t="inlineStr">
+        <is>
+          <t>Absorptivity
+(0-1)</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11975,6 +11985,7 @@
     <col width="12" customWidth="1" style="78" min="2" max="2"/>
     <col width="12" customWidth="1" style="78" min="3" max="3"/>
     <col width="12" customWidth="1" style="78" min="4" max="4"/>
+    <col width="12" customWidth="1" style="78" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12020,6 +12031,12 @@
 (m)</t>
         </is>
       </c>
+      <c r="E3" s="84" t="inlineStr">
+        <is>
+          <t>Absorptivity
+(0-1)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
